--- a/docs/рубрики.xlsx
+++ b/docs/рубрики.xlsx
@@ -449,61 +449,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="93.109375" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="93.109375" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -512,59 +518,74 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -572,37 +593,46 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
